--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_0_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>952090.7118364247</v>
+        <v>950203.1303200229</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>489221.1608572662</v>
+        <v>447530.4748871173</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>325.6309325204294</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>122.6636931249674</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -801,7 +801,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>17.24177071302502</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>26.32882004050031</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>29.43357108566505</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>279.9387901805692</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>38.06452392610854</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>208.1110812604921</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>359.9809022991371</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>72.46878910144308</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1333,16 +1333,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>27.45481249848806</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>205.1478855987996</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385007</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20011114811129</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>51.50461310111758</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>52.34452922604814</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985774</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>12.68762643336689</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1859,10 +1859,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274137</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>115.5269768002171</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985774</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>99.66848823188302</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>74.66728948354418</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>88.56956259877656</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2491,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>285.9888589191009</v>
       </c>
       <c r="V25" t="n">
-        <v>182.1181380970524</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>113.0068999504433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>131.0399678319741</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965523</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>25.34051740972912</v>
+        <v>76.90718818968348</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789658</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463113</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1191.835263233623</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C2" t="n">
-        <v>1191.835263233623</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D2" t="n">
-        <v>1191.835263233623</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E2" t="n">
-        <v>806.0470106353782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4331,7 +4331,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2342.040193534636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2342.040193534636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>2342.040193534636</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>2342.040193534636</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1968.574435273556</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y2" t="n">
-        <v>1578.435103297744</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="3">
@@ -4407,22 +4407,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>409.2948950230955</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>240.3587120951886</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>240.3587120951886</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>240.3587120951886</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>240.3587120951886</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>71.35891183352103</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="W4" t="n">
-        <v>409.2948950230955</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="X4" t="n">
-        <v>409.2948950230955</v>
+        <v>701.5342164887571</v>
       </c>
       <c r="Y4" t="n">
-        <v>409.2948950230955</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
         <v>882.8926947117852</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2667.418211133712</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2667.418211133712</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2667.418211133712</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2667.418211133712</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.355323790141</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.586668520027</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.120910258947</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,22 +4647,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>261.3917961488083</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C7" t="n">
-        <v>261.3917961488083</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>261.3917961488083</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>261.3917961488083</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942404</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>261.3917961488083</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>261.3917961488083</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>261.3917961488083</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X7" t="n">
-        <v>261.3917961488083</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.3917961488083</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.206655608311</v>
+        <v>1610.120910258947</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.206655608311</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.206655608311</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E8" t="n">
-        <v>1309.206655608311</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F8" t="n">
-        <v>898.2207508187034</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304455</v>
+        <v>2623.948293946058</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.806495672433</v>
+        <v>2370.186508584149</v>
       </c>
       <c r="X8" t="n">
-        <v>1695.806495672433</v>
+        <v>1996.720750323069</v>
       </c>
       <c r="Y8" t="n">
-        <v>1695.806495672433</v>
+        <v>1996.720750323069</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>670.9799312231997</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>443.6717438918015</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047984</v>
       </c>
       <c r="L12" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>772.8730769161742</v>
+        <v>1890.372576454148</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.284655180325</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="O12" t="n">
-        <v>2246.748416482984</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>441.9005583181191</v>
+        <v>579.0685056491541</v>
       </c>
       <c r="C13" t="n">
-        <v>441.9005583181191</v>
+        <v>579.0685056491541</v>
       </c>
       <c r="D13" t="n">
-        <v>291.7839189057834</v>
+        <v>428.9518662368183</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>428.9518662368183</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9518662368183</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>260.776544556639</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181191</v>
+        <v>1209.499100520941</v>
       </c>
       <c r="X13" t="n">
-        <v>441.9005583181191</v>
+        <v>981.5095496229239</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.9005583181191</v>
+        <v>760.7169704793938</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>327.180197328635</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M15" t="n">
-        <v>647.5155168583368</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2035.613819312969</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>874.9271131227916</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>620.2426249169048</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>330.8254548799441</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>665.685973528613</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>444.8933943850828</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
         <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>829.3628462796264</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1506.438612565609</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>213.9110074201012</v>
+        <v>672.4909068465487</v>
       </c>
       <c r="C19" t="n">
-        <v>213.9110074201012</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="D19" t="n">
-        <v>213.9110074201012</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>213.9110074201012</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>213.9110074201012</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799361</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609662</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550792</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181186</v>
+        <v>954.8146123150541</v>
       </c>
       <c r="X19" t="n">
-        <v>213.9110074201012</v>
+        <v>854.1393716767884</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.9110074201012</v>
+        <v>854.1393716767884</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5792,10 +5792,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>802.0403666355641</v>
       </c>
       <c r="M21" t="n">
-        <v>334.2881267578673</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.0652204802075</v>
+        <v>807.0580565471716</v>
       </c>
       <c r="C22" t="n">
-        <v>635.1290375523004</v>
+        <v>638.1218736192649</v>
       </c>
       <c r="D22" t="n">
-        <v>485.0123981399646</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E22" t="n">
-        <v>337.0993045575714</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>337.0993045575714</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>337.0993045575714</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>186.6812961055147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5914,16 +5914,16 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>985.7136853104472</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>985.7136853104472</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y22" t="n">
-        <v>985.7136853104472</v>
+        <v>988.7065213774114</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
@@ -5996,13 +5996,13 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899128</v>
@@ -6075,7 +6075,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M24" t="n">
-        <v>334.2881267578673</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N24" t="n">
         <v>1138.699705022018</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>843.8929204411537</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="C25" t="n">
-        <v>674.9567375132467</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="D25" t="n">
-        <v>524.840098100911</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247864</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="V25" t="n">
-        <v>1314.958555308354</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="W25" t="n">
-        <v>1025.541385271393</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.541385271393</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="Y25" t="n">
-        <v>1025.541385271393</v>
+        <v>675.2581065529675</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6239,16 +6239,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>840.6662285267282</v>
+        <v>674.6944526764913</v>
       </c>
       <c r="C28" t="n">
-        <v>671.7300455988213</v>
+        <v>505.7582697485844</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988213</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164282</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
         <v>208.7516828383384</v>
@@ -6379,16 +6379,16 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1384.767886769576</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>1384.767886769576</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.083398563689</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W28" t="n">
-        <v>840.6662285267282</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X28" t="n">
-        <v>840.6662285267282</v>
+        <v>1077.135496650261</v>
       </c>
       <c r="Y28" t="n">
-        <v>840.6662285267282</v>
+        <v>856.3429175067311</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L30" t="n">
-        <v>711.1141612171746</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M30" t="n">
-        <v>1138.699705022018</v>
+        <v>1149.698165809328</v>
       </c>
       <c r="N30" t="n">
-        <v>1138.699705022018</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542194</v>
+        <v>494.8466681110232</v>
       </c>
       <c r="C31" t="n">
-        <v>326.3571123076835</v>
+        <v>381.6713504644871</v>
       </c>
       <c r="D31" t="n">
-        <v>326.3571123076835</v>
+        <v>287.3155763335221</v>
       </c>
       <c r="E31" t="n">
-        <v>326.3571123076835</v>
+        <v>287.3155763335221</v>
       </c>
       <c r="F31" t="n">
-        <v>235.228030091144</v>
+        <v>287.3155763335221</v>
       </c>
       <c r="G31" t="n">
-        <v>122.8135736923355</v>
+        <v>174.9011199347136</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
         <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.450905366751</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962056</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
@@ -6637,34 +6637,34 @@
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1191.650971894288</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>957.9946671386978</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652475</v>
+        <v>785.7659815220513</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>620.734267659892</v>
       </c>
     </row>
     <row r="32">
@@ -6680,19 +6680,19 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,25 +6777,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M33" t="n">
-        <v>334.288126757867</v>
+        <v>1771.161069819836</v>
       </c>
       <c r="N33" t="n">
-        <v>1138.699705022018</v>
+        <v>2115.681725457453</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110834</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229682</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506736</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083216</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504523</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210314</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6862,46 +6862,46 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045217</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010326</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6953,13 +6953,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028583</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028583</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982968</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,19 +7157,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7190,16 +7190,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7214,10 +7214,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>417.5524109899876</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N39" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>865.5852378527472</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>1669.996816116898</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108322</v>
+        <v>659.4602391108315</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229656</v>
       </c>
       <c r="D43" t="n">
-        <v>478.047598850672</v>
+        <v>478.047598850671</v>
       </c>
       <c r="E43" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083192</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210312</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7579,40 +7579,40 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025261</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859415</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862495</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045198</v>
+        <v>924.2611010045192</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010308</v>
+        <v>772.2886129010301</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,7 +7825,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8781,13 +8781,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504511</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9258,13 +9258,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9714,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,16 +10200,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>381.5997261417972</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,13 +10914,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,10 +11151,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>99.23385149845788</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>97.40921526641854</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>127.4874509558892</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,16 +23659,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>213.0220289556703</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>50.96659166316049</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,10 +23941,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>126.0411671571541</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>73.94818353466817</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>21.84968286549547</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583893</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985774</v>
+        <v>0.2484934794763376</v>
       </c>
       <c r="V25" t="n">
-        <v>70.01950522677564</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24652,22 +24652,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>108.540661107946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>94.66968755706307</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>91.23070601801204</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437412</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.37005432924987</v>
+        <v>16.80338354929551</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>55.21598883571487</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523567</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>997124.1023311581</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311579</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>997124.102331158</v>
+        <v>997124.1023311581</v>
       </c>
     </row>
     <row r="11">
@@ -26314,43 +26314,43 @@
         <v>389994.8406855345</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
-      <c r="D2" t="n">
-        <v>389994.8406855344</v>
-      </c>
       <c r="E2" t="n">
+        <v>371477.6067508236</v>
+      </c>
+      <c r="F2" t="n">
         <v>371477.6067508234</v>
-      </c>
-      <c r="F2" t="n">
-        <v>371477.6067508235</v>
       </c>
       <c r="G2" t="n">
         <v>371477.6067508236</v>
       </c>
       <c r="H2" t="n">
-        <v>371477.6067508234</v>
+        <v>371477.6067508235</v>
       </c>
       <c r="I2" t="n">
         <v>371477.6067508235</v>
       </c>
       <c r="J2" t="n">
-        <v>371477.6067508235</v>
+        <v>371477.6067508236</v>
       </c>
       <c r="K2" t="n">
-        <v>386481.0304780068</v>
+        <v>386481.0304780067</v>
       </c>
       <c r="L2" t="n">
+        <v>389994.8406855347</v>
+      </c>
+      <c r="M2" t="n">
+        <v>389994.8406855346</v>
+      </c>
+      <c r="N2" t="n">
         <v>389994.8406855348</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>389994.8406855348</v>
-      </c>
-      <c r="N2" t="n">
-        <v>389994.8406855347</v>
-      </c>
-      <c r="O2" t="n">
-        <v>389994.8406855347</v>
       </c>
       <c r="P2" t="n">
         <v>389994.8406855348</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.6053028457</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086683</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338369</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>2.354388470848789e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284572</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758299</v>
+        <v>787.7936905759269</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758216</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905759209</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
         <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.4162047724</v>
+        <v>18952.41620477244</v>
       </c>
       <c r="L4" t="n">
+        <v>23206.58093189637</v>
+      </c>
+      <c r="M4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="M4" t="n">
-        <v>23206.58093189642</v>
-      </c>
       <c r="N4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26494,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-421891.2557730385</v>
+        <v>-421891.2557730384</v>
       </c>
       <c r="C6" t="n">
-        <v>168076.6234415059</v>
+        <v>168076.6234415061</v>
       </c>
       <c r="D6" t="n">
         <v>168076.6234415059</v>
       </c>
       <c r="E6" t="n">
-        <v>-246457.5493653652</v>
+        <v>-246555.0084913371</v>
       </c>
       <c r="F6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855587</v>
       </c>
       <c r="G6" t="n">
-        <v>278702.4871115311</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="H6" t="n">
-        <v>278702.487111531</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="I6" t="n">
-        <v>278702.487111531</v>
+        <v>278605.0279855588</v>
       </c>
       <c r="J6" t="n">
-        <v>102279.267918938</v>
+        <v>102181.8087929661</v>
       </c>
       <c r="K6" t="n">
-        <v>226737.8004401658</v>
+        <v>226719.3067022314</v>
       </c>
       <c r="L6" t="n">
         <v>258730.2471327462</v>
       </c>
       <c r="M6" t="n">
-        <v>134272.138699776</v>
+        <v>134272.1386997758</v>
       </c>
       <c r="N6" t="n">
-        <v>269073.1539336127</v>
+        <v>269073.153933613</v>
       </c>
       <c r="O6" t="n">
         <v>269073.153933613</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,19 +26738,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26759,19 +26759,19 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26926,13 +26926,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>12.92863350108354</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855716</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>29.05210910025352</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>93.78462723269043</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27439,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>138.9291181287701</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>225.8088232833277</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>25.04483148914664</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27673,16 +27673,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>69.30217853684377</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>107.3565240968227</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>78.41191707609889</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>53.80326772165785</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>143.9795312562147</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>184.6907264515308</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>13.43676775329516</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.266187155124498e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31142,10 +31142,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>208.1179754252735</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>126.0475280469432</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,10 +31929,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961213</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>148.1449823495585</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>339.3147979156453</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,13 +32303,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -32318,16 +32318,16 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>92.21452536007951</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>274.5684716790595</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32555,25 +32555,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>353.0329386354462</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130947006</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32786,19 +32786,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>380.4309478731436</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>261.755925085578</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33266,31 +33266,31 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>108.3335598738802</v>
+        <v>380.6314029223778</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>261.7559250855783</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,46 +33649,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33728,43 +33728,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.536285481346</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855524</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>256.9624847376525</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361487</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,43 +33810,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337667</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34141,7 +34141,7 @@
         <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927201</v>
       </c>
       <c r="O41" t="n">
         <v>562.4526372540886</v>
@@ -34208,25 +34208,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>102.4943942860912</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,10 +34790,10 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>556.1186376854937</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>310.5358892725502</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>496.1456446097787</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>523.8031591412522</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>324.5004908836645</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>622.5691339392797</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,19 +36048,19 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>585.3189041590311</v>
       </c>
       <c r="M21" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36288,7 +36288,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36373,7 +36373,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109137</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502048</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>239.4656922197792</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>728.4316101333638</v>
       </c>
       <c r="O24" t="n">
         <v>676.2260215178376</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556549</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
         <v>39.22569997187475</v>
@@ -36595,19 +36595,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>609.7565873457983</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>431.9045897018618</v>
+        <v>704.2024327503594</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.71102679412265</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
         <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
         <v>291.44060814916</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043187</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>239.4656922197789</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>513.0219999178634</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349802</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415662</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>441.4508459632594</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209231</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,10 +37470,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,10 +37710,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37789,7 +37789,7 @@
         <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>286.9827555116981</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
